--- a/data/extracted_data/raw/Sekiguchi_etal_2001_Fig2.xlsx
+++ b/data/extracted_data/raw/Sekiguchi_etal_2001_Fig2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F91C2-32AB-324E-8DC6-9016094F57F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F5257D-B57F-7F47-BDE1-1412C9FF801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9100" yWindow="8700" windowWidth="22840" windowHeight="10940" xr2:uid="{B36D4340-8D1A-7A42-A7BA-D91FBC741EC6}"/>
   </bookViews>
@@ -20,27 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>toxicity</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>neoSTX</t>
-  </si>
-  <si>
-    <t>GTX2+3</t>
-  </si>
-  <si>
-    <t>GTX1+4</t>
-  </si>
-  <si>
-    <t>C1+2</t>
   </si>
   <si>
     <t>Total</t>
@@ -907,683 +892,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7B755F-6A4B-154F-A110-51857ED0ED43}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>67.839195979899401</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4">
-        <v>25</v>
+        <v>73.869346733668294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
       <c r="C5">
-        <v>30</v>
+        <v>108.542713567839</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
       <c r="C6">
-        <v>35</v>
+        <v>138.693467336683</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
       <c r="C7">
-        <v>28</v>
+        <v>101.75879396984899</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>25</v>
+        <v>85.175879396984897</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
       <c r="C9">
-        <v>20</v>
+        <v>91.206030150753705</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
       <c r="C10">
-        <v>18</v>
+        <v>77.638190954773805</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>62</v>
+        <v>51.256281407035097</v>
       </c>
     </row>
   </sheetData>
